--- a/homeworks/homework_10/yevhenii_vinichenko/1-1_achievement-results-M4.xlsx
+++ b/homeworks/homework_10/yevhenii_vinichenko/1-1_achievement-results-M4.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr date1904="1" updateLinks="never" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\TIMSS2019\Reports\International Reports\REPORTS WEB\download-center\achievement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yevhe\Documents\TWD\2021Z-DataVisualizationTechniques\homeworks\homework_10\yevhenii_vinichenko\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2279F01-D09F-4CD1-B5F0-5B0C47A38F74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="11745"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="G4 MAT 1.1" sheetId="13" r:id="rId1"/>
@@ -21,10 +22,21 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'G4 MAT 1.1'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'G4 MAT 1.2'!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <customWorkbookViews>
     <customWorkbookView name="yes" guid="{D8155655-F7A3-4BDA-88A8-C340C532D887}" includePrintSettings="0" xWindow="184" windowWidth="1375" windowHeight="1040" activeSheetId="13" showComments="commIndAndComment"/>
   </customWorkbookViews>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -141,9 +153,6 @@
     <t>Latvia</t>
   </si>
   <si>
-    <t>Norway (5)</t>
-  </si>
-  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -175,9 +184,6 @@
   </si>
   <si>
     <t>Hungary</t>
-  </si>
-  <si>
-    <t>Turkey (5)</t>
   </si>
   <si>
     <t>Sweden</t>
@@ -576,11 +582,17 @@
   <si>
     <t>SOURCE:  IEA's Trends in International Mathematics and Science Study - TIMSS 2019</t>
   </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="\(0.0\)"/>
@@ -2177,35 +2189,35 @@
     </xf>
   </cellXfs>
   <cellStyles count="29">
-    <cellStyle name="Arrows_Comparison" xfId="1"/>
-    <cellStyle name="BenchMark_Header" xfId="2"/>
-    <cellStyle name="Countries" xfId="3"/>
-    <cellStyle name="Countries_List" xfId="4"/>
-    <cellStyle name="DataSheet" xfId="5"/>
-    <cellStyle name="DataSheet 2" xfId="20"/>
-    <cellStyle name="DataSheet 2 2" xfId="25"/>
-    <cellStyle name="DataSheet 3" xfId="22"/>
-    <cellStyle name="DataSheet 3 2" xfId="28"/>
-    <cellStyle name="Description_Header" xfId="6"/>
-    <cellStyle name="Exhibit_Title" xfId="7"/>
-    <cellStyle name="Footnote_Bottom_Marker" xfId="8"/>
-    <cellStyle name="Footnote_Top_Marker" xfId="9"/>
-    <cellStyle name="Footnotes" xfId="10"/>
-    <cellStyle name="Footnotes 2" xfId="21"/>
-    <cellStyle name="Footnotes 2 2" xfId="26"/>
-    <cellStyle name="Footnotes 3" xfId="23"/>
-    <cellStyle name="Head_6.5_Cent_topborder" xfId="11"/>
-    <cellStyle name="Head_8_Cent" xfId="12"/>
+    <cellStyle name="Arrows_Comparison" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="BenchMark_Header" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Countries" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Countries_List" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="DataSheet" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="DataSheet 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="DataSheet 2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="DataSheet 3" xfId="22" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="DataSheet 3 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Description_Header" xfId="6" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Exhibit_Title" xfId="7" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Footnote_Bottom_Marker" xfId="8" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Footnote_Top_Marker" xfId="9" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Footnotes" xfId="10" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Footnotes 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Footnotes 2 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Footnotes 3" xfId="23" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Head_6.5_Cent_topborder" xfId="11" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Head_8_Cent" xfId="12" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8"/>
-    <cellStyle name="Index_Header" xfId="13"/>
+    <cellStyle name="Index_Header" xfId="13" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="14"/>
-    <cellStyle name="Normal 2 2" xfId="24"/>
-    <cellStyle name="Numbers_Center" xfId="15"/>
-    <cellStyle name="Numbers_Right" xfId="16"/>
-    <cellStyle name="Numbers_S_Error" xfId="17"/>
-    <cellStyle name="RandS_Column" xfId="18"/>
-    <cellStyle name="Significance_Arrows" xfId="19"/>
+    <cellStyle name="Normal 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Normal 2 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Numbers_Center" xfId="15" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Numbers_Right" xfId="16" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Numbers_S_Error" xfId="17" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="RandS_Column" xfId="18" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Significance_Arrows" xfId="19" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
   </cellStyles>
   <dxfs count="123">
     <dxf>
@@ -3548,7 +3560,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3615,7 +3633,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="47" name="Group 46"/>
+        <xdr:cNvPr id="47" name="Group 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -3623,14 +3647,20 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="19050" y="19050"/>
-          <a:ext cx="12444984" cy="964088"/>
+          <a:ext cx="12990337" cy="949147"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="12449030" cy="960166"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="48" name="Picture 47"/>
+          <xdr:cNvPr id="48" name="Picture 47">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -3659,7 +3689,13 @@
       </xdr:pic>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="49" name="Picture 48"/>
+          <xdr:cNvPr id="49" name="Picture 48">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -3732,7 +3768,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3799,7 +3841,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="3" name="Group 2"/>
+        <xdr:cNvPr id="3" name="Group 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -3807,14 +3855,20 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="23065" y="19050"/>
-          <a:ext cx="12427375" cy="962407"/>
+          <a:ext cx="13133346" cy="951201"/>
           <a:chOff x="11215" y="0"/>
           <a:chExt cx="12437815" cy="960166"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="4" name="Picture 3"/>
+          <xdr:cNvPr id="4" name="Picture 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -3843,7 +3897,13 @@
       </xdr:pic>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="5" name="Picture 4"/>
+          <xdr:cNvPr id="5" name="Picture 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -4220,27 +4280,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:N99"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="14.26953125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="1.28515625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="3.85546875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="0.42578125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="52" customWidth="1"/>
+    <col min="1" max="1" width="1.26953125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="3.81640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="40.7265625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="0.453125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="11.1796875" style="52" customWidth="1"/>
     <col min="6" max="6" width="10" style="52" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="0.85546875" style="9" customWidth="1"/>
-    <col min="9" max="14" width="15.85546875" style="9" customWidth="1"/>
-    <col min="15" max="15" width="20.28515625" style="9" customWidth="1"/>
-    <col min="16" max="16384" width="14.28515625" style="9"/>
+    <col min="7" max="7" width="3.81640625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="0.81640625" style="9" customWidth="1"/>
+    <col min="9" max="14" width="15.81640625" style="9" customWidth="1"/>
+    <col min="15" max="15" width="20.26953125" style="9" customWidth="1"/>
+    <col min="16" max="16384" width="14.26953125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="22.5" customHeight="1"/>
@@ -4295,23 +4355,23 @@
       <c r="G6" s="209"/>
       <c r="H6" s="66"/>
       <c r="I6" s="67" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J6" s="67" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K6" s="203" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L6" s="203"/>
       <c r="M6" s="67" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N6" s="67" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="17.45" customHeight="1">
+    <row r="7" spans="1:14" ht="17.5" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="53" t="s">
         <v>12</v>
@@ -4349,7 +4409,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="17.45" customHeight="1">
+    <row r="8" spans="1:14" ht="17.5" customHeight="1">
       <c r="A8" s="17"/>
       <c r="B8" s="54" t="s">
         <v>13</v>
@@ -4387,7 +4447,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="17.45" customHeight="1">
+    <row r="9" spans="1:14" ht="17.5" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="53" t="s">
         <v>14</v>
@@ -4425,7 +4485,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="17.45" customHeight="1">
+    <row r="10" spans="1:14" ht="17.5" customHeight="1">
       <c r="A10" s="17"/>
       <c r="B10" s="54" t="s">
         <v>14</v>
@@ -4463,7 +4523,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="17.45" customHeight="1">
+    <row r="11" spans="1:14" ht="17.5" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="53" t="s">
         <v>14</v>
@@ -4501,7 +4561,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="17.45" customHeight="1">
+    <row r="12" spans="1:14" ht="17.5" customHeight="1">
       <c r="A12" s="17"/>
       <c r="B12" s="54" t="s">
         <v>15</v>
@@ -4539,7 +4599,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="17.45" customHeight="1">
+    <row r="13" spans="1:14" ht="17.5" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="53" t="s">
         <v>13</v>
@@ -4577,7 +4637,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="17.45" customHeight="1">
+    <row r="14" spans="1:14" ht="17.5" customHeight="1">
       <c r="A14" s="17"/>
       <c r="B14" s="54" t="s">
         <v>15</v>
@@ -4615,7 +4675,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="17.45" customHeight="1">
+    <row r="15" spans="1:14" ht="17.5" customHeight="1">
       <c r="A15" s="10"/>
       <c r="B15" s="53" t="s">
         <v>14</v>
@@ -4653,7 +4713,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="17.45" customHeight="1">
+    <row r="16" spans="1:14" ht="17.5" customHeight="1">
       <c r="A16" s="17"/>
       <c r="B16" s="54" t="s">
         <v>15</v>
@@ -4691,13 +4751,13 @@
         <v>650</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="17.45" customHeight="1">
+    <row r="17" spans="1:14" ht="17.5" customHeight="1">
       <c r="A17" s="10"/>
       <c r="B17" s="53" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>31</v>
+        <v>160</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="13">
@@ -4729,13 +4789,13 @@
         <v>660</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="17.45" customHeight="1">
+    <row r="18" spans="1:14" ht="17.5" customHeight="1">
       <c r="A18" s="17"/>
       <c r="B18" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="19">
@@ -4767,13 +4827,13 @@
         <v>660</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="17.45" customHeight="1">
+    <row r="19" spans="1:14" ht="17.5" customHeight="1">
       <c r="A19" s="10"/>
       <c r="B19" s="53" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="13">
@@ -4805,13 +4865,13 @@
         <v>643</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="17.45" customHeight="1">
+    <row r="20" spans="1:14" ht="17.5" customHeight="1">
       <c r="A20" s="17"/>
       <c r="B20" s="54" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="19">
@@ -4843,13 +4903,13 @@
         <v>634</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="17.45" customHeight="1">
+    <row r="21" spans="1:14" ht="17.5" customHeight="1">
       <c r="A21" s="10"/>
       <c r="B21" s="53" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="13">
@@ -4881,13 +4941,13 @@
         <v>663</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="17.45" customHeight="1">
+    <row r="22" spans="1:14" ht="17.5" customHeight="1">
       <c r="A22" s="17"/>
       <c r="B22" s="54" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="19">
@@ -4919,13 +4979,13 @@
         <v>650</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="17.45" customHeight="1">
+    <row r="23" spans="1:14" ht="17.5" customHeight="1">
       <c r="A23" s="10"/>
       <c r="B23" s="53" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="13">
@@ -4957,13 +5017,13 @@
         <v>641</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="17.45" customHeight="1">
+    <row r="24" spans="1:14" ht="17.5" customHeight="1">
       <c r="A24" s="17"/>
       <c r="B24" s="54" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="19">
@@ -4995,13 +5055,13 @@
         <v>657</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="17.45" customHeight="1">
+    <row r="25" spans="1:14" ht="17.5" customHeight="1">
       <c r="A25" s="10"/>
       <c r="B25" s="53" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="13">
@@ -5033,13 +5093,13 @@
         <v>653</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="17.45" customHeight="1">
+    <row r="26" spans="1:14" ht="17.5" customHeight="1">
       <c r="A26" s="17"/>
       <c r="B26" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="19">
@@ -5071,13 +5131,13 @@
         <v>644</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="17.45" customHeight="1">
+    <row r="27" spans="1:14" ht="17.5" customHeight="1">
       <c r="A27" s="10"/>
       <c r="B27" s="53" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="13">
@@ -5109,13 +5169,13 @@
         <v>644</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="17.45" customHeight="1">
+    <row r="28" spans="1:14" ht="17.5" customHeight="1">
       <c r="A28" s="17"/>
       <c r="B28" s="54" t="s">
         <v>14</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="19">
@@ -5147,13 +5207,13 @@
         <v>645</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="17.45" customHeight="1">
+    <row r="29" spans="1:14" ht="17.5" customHeight="1">
       <c r="A29" s="10"/>
       <c r="B29" s="53" t="s">
         <v>15</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>43</v>
+        <v>161</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="13">
@@ -5185,13 +5245,13 @@
         <v>671</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="17.45" customHeight="1">
+    <row r="30" spans="1:14" ht="17.5" customHeight="1">
       <c r="A30" s="17"/>
       <c r="B30" s="54" t="s">
         <v>14</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="19">
@@ -5223,13 +5283,13 @@
         <v>640</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="17.45" customHeight="1">
+    <row r="31" spans="1:14" ht="17.5" customHeight="1">
       <c r="A31" s="10"/>
       <c r="B31" s="53" t="s">
         <v>14</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="13">
@@ -5261,13 +5321,13 @@
         <v>630</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="17.45" customHeight="1">
+    <row r="32" spans="1:14" ht="17.5" customHeight="1">
       <c r="A32" s="17"/>
       <c r="B32" s="54" t="s">
         <v>14</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="19">
@@ -5299,13 +5359,13 @@
         <v>642</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="17.45" customHeight="1">
+    <row r="33" spans="1:14" ht="17.5" customHeight="1">
       <c r="A33" s="10"/>
       <c r="B33" s="53" t="s">
         <v>14</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="13">
@@ -5337,13 +5397,13 @@
         <v>654</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="17.45" customHeight="1">
+    <row r="34" spans="1:14" ht="17.5" customHeight="1">
       <c r="A34" s="17"/>
       <c r="B34" s="54" t="s">
         <v>14</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="19">
@@ -5375,13 +5435,13 @@
         <v>640</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="17.45" customHeight="1">
+    <row r="35" spans="1:14" ht="17.5" customHeight="1">
       <c r="A35" s="10"/>
       <c r="B35" s="53" t="s">
         <v>14</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="13">
@@ -5413,13 +5473,13 @@
         <v>642</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="17.45" customHeight="1">
+    <row r="36" spans="1:14" ht="17.5" customHeight="1">
       <c r="A36" s="17"/>
       <c r="B36" s="54" t="s">
         <v>14</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="19">
@@ -5451,13 +5511,13 @@
         <v>619</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="17.45" customHeight="1">
+    <row r="37" spans="1:14" ht="17.5" customHeight="1">
       <c r="A37" s="10"/>
       <c r="B37" s="53" t="s">
         <v>15</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="13">
@@ -5489,13 +5549,13 @@
         <v>622</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="17.45" customHeight="1">
+    <row r="38" spans="1:14" ht="17.5" customHeight="1">
       <c r="A38" s="17"/>
       <c r="B38" s="54" t="s">
         <v>18</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="19">
@@ -5527,13 +5587,13 @@
         <v>633</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="17.45" customHeight="1">
+    <row r="39" spans="1:14" ht="17.5" customHeight="1">
       <c r="A39" s="10"/>
       <c r="B39" s="53" t="s">
         <v>15</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D39" s="12"/>
       <c r="E39" s="13">
@@ -5565,13 +5625,13 @@
         <v>626</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="17.45" customHeight="1">
+    <row r="40" spans="1:14" ht="17.5" customHeight="1">
       <c r="A40" s="17"/>
       <c r="B40" s="54" t="s">
         <v>14</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="19">
@@ -5603,13 +5663,13 @@
         <v>617</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="17.45" customHeight="1">
+    <row r="41" spans="1:14" ht="17.5" customHeight="1">
       <c r="A41" s="10"/>
       <c r="B41" s="53" t="s">
         <v>14</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D41" s="12"/>
       <c r="E41" s="13">
@@ -5641,13 +5701,13 @@
         <v>625</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="17.45" customHeight="1">
+    <row r="42" spans="1:14" ht="17.5" customHeight="1">
       <c r="A42" s="17"/>
       <c r="B42" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D42" s="12"/>
       <c r="E42" s="19">
@@ -5679,13 +5739,13 @@
         <v>639</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="17.45" customHeight="1">
+    <row r="43" spans="1:14" ht="17.5" customHeight="1">
       <c r="A43" s="10"/>
       <c r="B43" s="53" t="s">
         <v>14</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="13">
@@ -5717,13 +5777,13 @@
         <v>617</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="17.45" customHeight="1">
+    <row r="44" spans="1:14" ht="17.5" customHeight="1">
       <c r="A44" s="23"/>
       <c r="B44" s="55" t="s">
         <v>14</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D44" s="12"/>
       <c r="E44" s="25">
@@ -5741,13 +5801,13 @@
       <c r="M44" s="74"/>
       <c r="N44" s="74"/>
     </row>
-    <row r="45" spans="1:14" ht="17.45" customHeight="1">
+    <row r="45" spans="1:14" ht="17.5" customHeight="1">
       <c r="A45" s="10"/>
       <c r="B45" s="53" t="s">
         <v>14</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D45" s="12"/>
       <c r="E45" s="13">
@@ -5779,13 +5839,13 @@
         <v>607</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="17.45" customHeight="1">
+    <row r="46" spans="1:14" ht="17.5" customHeight="1">
       <c r="A46" s="17"/>
       <c r="B46" s="54" t="s">
         <v>14</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D46" s="12"/>
       <c r="E46" s="19">
@@ -5817,13 +5877,13 @@
         <v>627</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="17.45" customHeight="1">
+    <row r="47" spans="1:14" ht="17.5" customHeight="1">
       <c r="A47" s="10"/>
       <c r="B47" s="53" t="s">
         <v>15</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D47" s="12"/>
       <c r="E47" s="13">
@@ -5855,13 +5915,13 @@
         <v>634</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="17.45" customHeight="1">
+    <row r="48" spans="1:14" ht="17.5" customHeight="1">
       <c r="A48" s="17"/>
       <c r="B48" s="54" t="s">
         <v>14</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D48" s="12"/>
       <c r="E48" s="19">
@@ -5893,13 +5953,13 @@
         <v>611</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="17.45" customHeight="1">
+    <row r="49" spans="1:14" ht="17.5" customHeight="1">
       <c r="A49" s="10"/>
       <c r="B49" s="53" t="s">
         <v>19</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D49" s="12"/>
       <c r="E49" s="13">
@@ -5931,13 +5991,13 @@
         <v>608</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="17.45" customHeight="1">
+    <row r="50" spans="1:14" ht="17.5" customHeight="1">
       <c r="A50" s="17"/>
       <c r="B50" s="54" t="s">
         <v>14</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D50" s="12"/>
       <c r="E50" s="19">
@@ -5969,13 +6029,13 @@
         <v>638</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="17.45" customHeight="1">
+    <row r="51" spans="1:14" ht="17.5" customHeight="1">
       <c r="A51" s="10"/>
       <c r="B51" s="53" t="s">
         <v>14</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D51" s="12"/>
       <c r="E51" s="13">
@@ -6007,13 +6067,13 @@
         <v>618</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="17.45" customHeight="1">
+    <row r="52" spans="1:14" ht="17.5" customHeight="1">
       <c r="A52" s="17"/>
       <c r="B52" s="54" t="s">
         <v>14</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D52" s="12"/>
       <c r="E52" s="19">
@@ -6045,13 +6105,13 @@
         <v>622</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="17.45" customHeight="1">
+    <row r="53" spans="1:14" ht="17.5" customHeight="1">
       <c r="A53" s="10"/>
       <c r="B53" s="53" t="s">
         <v>14</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D53" s="12"/>
       <c r="E53" s="13">
@@ -6083,13 +6143,13 @@
         <v>578</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="17.45" customHeight="1">
+    <row r="54" spans="1:14" ht="17.5" customHeight="1">
       <c r="A54" s="17"/>
       <c r="B54" s="54" t="s">
         <v>14</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D54" s="12"/>
       <c r="E54" s="19">
@@ -6121,13 +6181,13 @@
         <v>569</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="17.45" customHeight="1">
+    <row r="55" spans="1:14" ht="17.5" customHeight="1">
       <c r="A55" s="10"/>
       <c r="B55" s="53" t="s">
         <v>14</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D55" s="12"/>
       <c r="E55" s="13">
@@ -6159,13 +6219,13 @@
         <v>599</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="17.45" customHeight="1">
+    <row r="56" spans="1:14" ht="17.5" customHeight="1">
       <c r="A56" s="17"/>
       <c r="B56" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D56" s="12"/>
       <c r="E56" s="19">
@@ -6197,13 +6257,13 @@
         <v>568</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="17.45" customHeight="1">
+    <row r="57" spans="1:14" ht="17.5" customHeight="1">
       <c r="A57" s="10"/>
       <c r="B57" s="53" t="s">
         <v>14</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D57" s="12"/>
       <c r="E57" s="13">
@@ -6235,13 +6295,13 @@
         <v>592</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="17.45" customHeight="1">
+    <row r="58" spans="1:14" ht="17.5" customHeight="1">
       <c r="A58" s="17"/>
       <c r="B58" s="54" t="s">
         <v>14</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D58" s="12"/>
       <c r="E58" s="19">
@@ -6273,13 +6333,13 @@
         <v>565</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="17.45" customHeight="1">
+    <row r="59" spans="1:14" ht="17.5" customHeight="1">
       <c r="A59" s="10"/>
       <c r="B59" s="53" t="s">
         <v>14</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D59" s="12"/>
       <c r="E59" s="13">
@@ -6311,13 +6371,13 @@
         <v>602</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="17.45" customHeight="1">
+    <row r="60" spans="1:14" ht="17.5" customHeight="1">
       <c r="A60" s="17"/>
       <c r="B60" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D60" s="12"/>
       <c r="E60" s="19">
@@ -6349,13 +6409,13 @@
         <v>558</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="17.45" customHeight="1">
+    <row r="61" spans="1:14" ht="17.5" customHeight="1">
       <c r="A61" s="10"/>
       <c r="B61" s="53" t="s">
         <v>14</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D61" s="12"/>
       <c r="E61" s="13">
@@ -6387,13 +6447,13 @@
         <v>555</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="17.45" customHeight="1">
+    <row r="62" spans="1:14" ht="17.5" customHeight="1">
       <c r="A62" s="17"/>
       <c r="B62" s="54" t="s">
         <v>14</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D62" s="12"/>
       <c r="E62" s="19">
@@ -6425,13 +6485,13 @@
         <v>555</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="17.45" customHeight="1">
+    <row r="63" spans="1:14" ht="17.5" customHeight="1">
       <c r="A63" s="10"/>
       <c r="B63" s="53" t="s">
         <v>14</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D63" s="12"/>
       <c r="E63" s="13">
@@ -6463,13 +6523,13 @@
         <v>552</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="17.45" customHeight="1">
+    <row r="64" spans="1:14" ht="17.5" customHeight="1">
       <c r="A64" s="17"/>
       <c r="B64" s="54" t="s">
         <v>20</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D64" s="12"/>
       <c r="E64" s="19">
@@ -6501,13 +6561,13 @@
         <v>493</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="17.45" customHeight="1" thickBot="1">
+    <row r="65" spans="1:14" ht="17.5" customHeight="1" thickBot="1">
       <c r="A65" s="58"/>
       <c r="B65" s="59" t="s">
         <v>20</v>
       </c>
       <c r="C65" s="60" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D65" s="12"/>
       <c r="E65" s="61">
@@ -6539,7 +6599,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="23.1" customHeight="1" thickBot="1">
+    <row r="66" spans="1:14" ht="23.15" customHeight="1" thickBot="1">
       <c r="A66" s="32" t="s">
         <v>0</v>
       </c>
@@ -6555,13 +6615,13 @@
       <c r="M66" s="73"/>
       <c r="N66" s="73"/>
     </row>
-    <row r="67" spans="1:14" ht="17.45" customHeight="1">
+    <row r="67" spans="1:14" ht="17.5" customHeight="1">
       <c r="A67" s="36"/>
       <c r="B67" s="53" t="s">
         <v>14</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D67" s="12"/>
       <c r="E67" s="13">
@@ -6593,13 +6653,13 @@
         <v>686</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="17.45" customHeight="1">
+    <row r="68" spans="1:14" ht="17.5" customHeight="1">
       <c r="A68" s="37"/>
       <c r="B68" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D68" s="12"/>
       <c r="E68" s="38">
@@ -6631,13 +6691,13 @@
         <v>671</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="17.45" customHeight="1">
+    <row r="69" spans="1:14" ht="17.5" customHeight="1">
       <c r="A69" s="36"/>
       <c r="B69" s="53" t="s">
         <v>14</v>
       </c>
       <c r="C69" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D69" s="12"/>
       <c r="E69" s="13">
@@ -6669,13 +6729,13 @@
         <v>638</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="17.45" customHeight="1">
+    <row r="70" spans="1:14" ht="17.5" customHeight="1">
       <c r="A70" s="37"/>
       <c r="B70" s="54" t="s">
         <v>14</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D70" s="12"/>
       <c r="E70" s="38">
@@ -6707,13 +6767,13 @@
         <v>623</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="17.45" customHeight="1">
+    <row r="71" spans="1:14" ht="17.5" customHeight="1">
       <c r="A71" s="41"/>
       <c r="B71" s="57">
         <v>2</v>
       </c>
       <c r="C71" s="42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D71" s="12"/>
       <c r="E71" s="43">
@@ -6745,13 +6805,13 @@
         <v>637</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="17.45" customHeight="1" thickBot="1">
+    <row r="72" spans="1:14" ht="17.5" customHeight="1" thickBot="1">
       <c r="A72" s="45"/>
       <c r="B72" s="56" t="s">
         <v>14</v>
       </c>
       <c r="C72" s="46" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D72" s="47"/>
       <c r="E72" s="48">
@@ -6857,7 +6917,7 @@
       <c r="J79" s="202"/>
       <c r="K79" s="202"/>
     </row>
-    <row r="80" spans="1:14" s="6" customFormat="1" ht="14.25">
+    <row r="80" spans="1:14" s="6" customFormat="1" ht="14">
       <c r="B80" s="29"/>
       <c r="C80" s="29"/>
       <c r="D80" s="29"/>
@@ -6974,17 +7034,17 @@
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="2:14" s="1" customFormat="1" ht="17.45" customHeight="1"/>
-    <row r="90" spans="2:14" s="1" customFormat="1"/>
-    <row r="91" spans="2:14" s="1" customFormat="1"/>
-    <row r="92" spans="2:14" s="1" customFormat="1"/>
-    <row r="93" spans="2:14" s="1" customFormat="1"/>
-    <row r="94" spans="2:14" s="1" customFormat="1"/>
-    <row r="95" spans="2:14" s="1" customFormat="1"/>
-    <row r="96" spans="2:14" s="1" customFormat="1"/>
-    <row r="97" s="1" customFormat="1"/>
-    <row r="98" s="1" customFormat="1"/>
-    <row r="99" s="1" customFormat="1"/>
+    <row r="89" spans="2:14" s="1" customFormat="1" ht="17.5" customHeight="1"/>
+    <row r="90" spans="2:14" s="1" customFormat="1" ht="12.5"/>
+    <row r="91" spans="2:14" s="1" customFormat="1" ht="12.5"/>
+    <row r="92" spans="2:14" s="1" customFormat="1" ht="12.5"/>
+    <row r="93" spans="2:14" s="1" customFormat="1" ht="12.5"/>
+    <row r="94" spans="2:14" s="1" customFormat="1" ht="12.5"/>
+    <row r="95" spans="2:14" s="1" customFormat="1" ht="12.5"/>
+    <row r="96" spans="2:14" s="1" customFormat="1" ht="12.5"/>
+    <row r="97" s="1" customFormat="1" ht="12.5"/>
+    <row r="98" s="1" customFormat="1" ht="12.5"/>
+    <row r="99" s="1" customFormat="1" ht="12.5"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
   <customSheetViews>
@@ -7231,7 +7291,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B88" r:id="rId1" display="http://timss2019.org/download"/>
+    <hyperlink ref="B88" r:id="rId1" display="http://timss2019.org/download" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15" right="0.15" top="0.15" bottom="0.15" header="0.15" footer="0"/>
@@ -7245,7 +7305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:CX82"/>
   <sheetViews>
@@ -7253,29 +7313,29 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="14.26953125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="1.28515625" style="110" customWidth="1"/>
-    <col min="2" max="2" width="3.85546875" style="110" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" style="110" customWidth="1"/>
-    <col min="4" max="4" width="0.85546875" style="110" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" style="198" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" style="198" customWidth="1"/>
-    <col min="7" max="7" width="0.85546875" style="110" customWidth="1"/>
-    <col min="8" max="72" width="3.7109375" style="110" customWidth="1"/>
-    <col min="73" max="73" width="2.7109375" style="110" customWidth="1"/>
-    <col min="74" max="88" width="3.7109375" style="110" customWidth="1"/>
-    <col min="89" max="96" width="4.7109375" style="110" customWidth="1"/>
-    <col min="97" max="97" width="5.28515625" style="110" customWidth="1"/>
-    <col min="98" max="102" width="4.7109375" customWidth="1"/>
-    <col min="103" max="103" width="4.7109375" style="110" customWidth="1"/>
-    <col min="104" max="16384" width="14.28515625" style="110"/>
+    <col min="1" max="1" width="1.26953125" style="110" customWidth="1"/>
+    <col min="2" max="2" width="3.81640625" style="110" customWidth="1"/>
+    <col min="3" max="3" width="33.1796875" style="110" customWidth="1"/>
+    <col min="4" max="4" width="0.81640625" style="110" customWidth="1"/>
+    <col min="5" max="5" width="7.54296875" style="198" customWidth="1"/>
+    <col min="6" max="6" width="7.453125" style="198" customWidth="1"/>
+    <col min="7" max="7" width="0.81640625" style="110" customWidth="1"/>
+    <col min="8" max="72" width="3.7265625" style="110" customWidth="1"/>
+    <col min="73" max="73" width="2.7265625" style="110" customWidth="1"/>
+    <col min="74" max="88" width="3.7265625" style="110" customWidth="1"/>
+    <col min="89" max="96" width="4.7265625" style="110" customWidth="1"/>
+    <col min="97" max="97" width="5.26953125" style="110" customWidth="1"/>
+    <col min="98" max="102" width="4.7265625" customWidth="1"/>
+    <col min="103" max="103" width="4.7265625" style="110" customWidth="1"/>
+    <col min="104" max="16384" width="14.26953125" style="110"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:102" customFormat="1" ht="22.5" customHeight="1"/>
     <row r="2" spans="1:102" s="75" customFormat="1" ht="25.5" customHeight="1">
       <c r="A2" s="212" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B2" s="212"/>
       <c r="C2" s="212"/>
@@ -7319,7 +7379,7 @@
       <c r="CW2"/>
       <c r="CX2"/>
     </row>
-    <row r="3" spans="1:102" s="75" customFormat="1" ht="18">
+    <row r="3" spans="1:102" s="75" customFormat="1" ht="17.5">
       <c r="A3" s="199"/>
       <c r="B3" s="199"/>
       <c r="C3" s="199"/>
@@ -7353,7 +7413,7 @@
       <c r="CW4"/>
       <c r="CX4"/>
     </row>
-    <row r="5" spans="1:102" s="75" customFormat="1" ht="0.6" customHeight="1">
+    <row r="5" spans="1:102" s="75" customFormat="1" ht="0.65" customHeight="1">
       <c r="A5" s="76"/>
       <c r="B5" s="76"/>
       <c r="C5" s="76"/>
@@ -7372,7 +7432,7 @@
     </row>
     <row r="6" spans="1:102" s="75" customFormat="1" ht="33.75" customHeight="1">
       <c r="B6" s="213" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C6" s="213"/>
       <c r="D6" s="213"/>
@@ -7471,7 +7531,7 @@
       </c>
       <c r="D8" s="82"/>
       <c r="E8" s="214" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F8" s="214"/>
       <c r="G8" s="82"/>
@@ -7612,104 +7672,104 @@
         <v xml:space="preserve">Croatia </v>
       </c>
       <c r="AP8" s="89" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ8" s="87" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR8" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="AQ8" s="87" t="s">
+      <c r="AS8" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="AR8" s="85" t="s">
+      <c r="AT8" s="90" t="s">
         <v>96</v>
       </c>
-      <c r="AS8" s="84" t="s">
+      <c r="AU8" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="AT8" s="90" t="s">
+      <c r="AV8" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="AU8" s="91" t="s">
+      <c r="AW8" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="AV8" s="83" t="s">
+      <c r="AX8" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="AW8" s="84" t="s">
+      <c r="AY8" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="AX8" s="85" t="s">
+      <c r="AZ8" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="AY8" s="92" t="s">
+      <c r="BA8" s="87" t="s">
         <v>103</v>
       </c>
-      <c r="AZ8" s="93" t="s">
+      <c r="BB8" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="BA8" s="87" t="s">
+      <c r="BC8" s="84" t="s">
         <v>105</v>
       </c>
-      <c r="BB8" s="85" t="s">
+      <c r="BD8" s="90" t="s">
         <v>106</v>
       </c>
-      <c r="BC8" s="84" t="s">
+      <c r="BE8" s="91" t="s">
         <v>107</v>
       </c>
-      <c r="BD8" s="90" t="s">
+      <c r="BF8" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="BE8" s="91" t="s">
+      <c r="BG8" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="BF8" s="85" t="s">
+      <c r="BH8" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="BG8" s="84" t="s">
+      <c r="BI8" s="92" t="s">
         <v>111</v>
       </c>
-      <c r="BH8" s="85" t="s">
+      <c r="BJ8" s="93" t="s">
         <v>112</v>
       </c>
-      <c r="BI8" s="92" t="s">
+      <c r="BK8" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="BJ8" s="93" t="s">
+      <c r="BL8" s="94" t="s">
         <v>114</v>
       </c>
-      <c r="BK8" s="87" t="s">
+      <c r="BM8" s="95" t="s">
         <v>115</v>
-      </c>
-      <c r="BL8" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="BM8" s="95" t="s">
-        <v>117</v>
       </c>
       <c r="BN8" s="215" t="s">
         <v>0</v>
       </c>
       <c r="BO8" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="BP8" s="96" t="s">
+        <v>117</v>
+      </c>
+      <c r="BQ8" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="BP8" s="96" t="s">
+      <c r="BR8" s="96" t="s">
         <v>119</v>
       </c>
-      <c r="BQ8" s="85" t="s">
+      <c r="BS8" s="86" t="s">
         <v>120</v>
       </c>
-      <c r="BR8" s="96" t="s">
+      <c r="BT8" s="97" t="s">
         <v>121</v>
       </c>
-      <c r="BS8" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="BT8" s="97" t="s">
-        <v>123</v>
-      </c>
     </row>
-    <row r="9" spans="1:102" ht="17.45" customHeight="1">
+    <row r="9" spans="1:102" ht="17.5" customHeight="1">
       <c r="A9" s="98"/>
       <c r="B9" s="99"/>
       <c r="C9" s="100" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D9" s="101"/>
       <c r="E9" s="102">
@@ -7918,11 +7978,11 @@
       <c r="CW9" s="110"/>
       <c r="CX9" s="110"/>
     </row>
-    <row r="10" spans="1:102" ht="17.45" customHeight="1">
+    <row r="10" spans="1:102" ht="17.5" customHeight="1">
       <c r="A10" s="98"/>
       <c r="B10" s="111"/>
       <c r="C10" s="112" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D10" s="101"/>
       <c r="E10" s="113">
@@ -8131,11 +8191,11 @@
       <c r="CW10" s="110"/>
       <c r="CX10" s="110"/>
     </row>
-    <row r="11" spans="1:102" ht="17.45" customHeight="1">
+    <row r="11" spans="1:102" ht="17.5" customHeight="1">
       <c r="A11" s="98"/>
       <c r="B11" s="99"/>
       <c r="C11" s="100" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D11" s="101"/>
       <c r="E11" s="102">
@@ -8344,11 +8404,11 @@
       <c r="CW11" s="110"/>
       <c r="CX11" s="110"/>
     </row>
-    <row r="12" spans="1:102" ht="17.45" customHeight="1">
+    <row r="12" spans="1:102" ht="17.5" customHeight="1">
       <c r="A12" s="98"/>
       <c r="B12" s="111"/>
       <c r="C12" s="112" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D12" s="101"/>
       <c r="E12" s="113">
@@ -8557,11 +8617,11 @@
       <c r="CW12" s="110"/>
       <c r="CX12" s="110"/>
     </row>
-    <row r="13" spans="1:102" ht="17.45" customHeight="1" thickBot="1">
+    <row r="13" spans="1:102" ht="17.5" customHeight="1" thickBot="1">
       <c r="A13" s="98"/>
       <c r="B13" s="122"/>
       <c r="C13" s="123" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D13" s="101"/>
       <c r="E13" s="124">
@@ -8770,11 +8830,11 @@
       <c r="CW13" s="110"/>
       <c r="CX13" s="110"/>
     </row>
-    <row r="14" spans="1:102" ht="17.45" customHeight="1">
+    <row r="14" spans="1:102" ht="17.5" customHeight="1">
       <c r="A14" s="98"/>
       <c r="B14" s="133"/>
       <c r="C14" s="134" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D14" s="101"/>
       <c r="E14" s="135">
@@ -8983,11 +9043,11 @@
       <c r="CW14" s="110"/>
       <c r="CX14" s="110"/>
     </row>
-    <row r="15" spans="1:102" ht="17.45" customHeight="1">
+    <row r="15" spans="1:102" ht="17.5" customHeight="1">
       <c r="A15" s="98"/>
       <c r="B15" s="99"/>
       <c r="C15" s="100" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D15" s="101"/>
       <c r="E15" s="102">
@@ -9196,11 +9256,11 @@
       <c r="CW15" s="110"/>
       <c r="CX15" s="110"/>
     </row>
-    <row r="16" spans="1:102" ht="17.45" customHeight="1">
+    <row r="16" spans="1:102" ht="17.5" customHeight="1">
       <c r="A16" s="98"/>
       <c r="B16" s="111"/>
       <c r="C16" s="112" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D16" s="101"/>
       <c r="E16" s="113">
@@ -9409,11 +9469,11 @@
       <c r="CW16" s="110"/>
       <c r="CX16" s="110"/>
     </row>
-    <row r="17" spans="1:102" ht="17.45" customHeight="1">
+    <row r="17" spans="1:102" ht="17.5" customHeight="1">
       <c r="A17" s="98"/>
       <c r="B17" s="99"/>
       <c r="C17" s="100" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D17" s="101"/>
       <c r="E17" s="102">
@@ -9622,11 +9682,11 @@
       <c r="CW17" s="110"/>
       <c r="CX17" s="110"/>
     </row>
-    <row r="18" spans="1:102" ht="17.45" customHeight="1" thickBot="1">
+    <row r="18" spans="1:102" ht="17.5" customHeight="1" thickBot="1">
       <c r="A18" s="98"/>
       <c r="B18" s="143"/>
       <c r="C18" s="144" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D18" s="101"/>
       <c r="E18" s="145">
@@ -9835,11 +9895,11 @@
       <c r="CW18" s="110"/>
       <c r="CX18" s="110"/>
     </row>
-    <row r="19" spans="1:102" ht="17.45" customHeight="1">
+    <row r="19" spans="1:102" ht="17.5" customHeight="1">
       <c r="A19" s="98"/>
       <c r="B19" s="153"/>
       <c r="C19" s="154" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D19" s="101"/>
       <c r="E19" s="155">
@@ -10048,11 +10108,11 @@
       <c r="CW19" s="110"/>
       <c r="CX19" s="110"/>
     </row>
-    <row r="20" spans="1:102" ht="17.45" customHeight="1">
+    <row r="20" spans="1:102" ht="17.5" customHeight="1">
       <c r="A20" s="98"/>
       <c r="B20" s="111"/>
       <c r="C20" s="112" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D20" s="101"/>
       <c r="E20" s="113">
@@ -10261,11 +10321,11 @@
       <c r="CW20" s="110"/>
       <c r="CX20" s="110"/>
     </row>
-    <row r="21" spans="1:102" ht="17.45" customHeight="1">
+    <row r="21" spans="1:102" ht="17.5" customHeight="1">
       <c r="A21" s="98"/>
       <c r="B21" s="99"/>
       <c r="C21" s="100" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D21" s="101"/>
       <c r="E21" s="102">
@@ -10474,11 +10534,11 @@
       <c r="CW21" s="110"/>
       <c r="CX21" s="110"/>
     </row>
-    <row r="22" spans="1:102" ht="17.45" customHeight="1">
+    <row r="22" spans="1:102" ht="17.5" customHeight="1">
       <c r="A22" s="98"/>
       <c r="B22" s="111"/>
       <c r="C22" s="112" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D22" s="101"/>
       <c r="E22" s="113">
@@ -10687,11 +10747,11 @@
       <c r="CW22" s="110"/>
       <c r="CX22" s="110"/>
     </row>
-    <row r="23" spans="1:102" ht="17.45" customHeight="1" thickBot="1">
+    <row r="23" spans="1:102" ht="17.5" customHeight="1" thickBot="1">
       <c r="A23" s="98"/>
       <c r="B23" s="122"/>
       <c r="C23" s="123" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D23" s="101"/>
       <c r="E23" s="124">
@@ -10900,11 +10960,11 @@
       <c r="CW23" s="110"/>
       <c r="CX23" s="110"/>
     </row>
-    <row r="24" spans="1:102" ht="17.45" customHeight="1">
+    <row r="24" spans="1:102" ht="17.5" customHeight="1">
       <c r="A24" s="98"/>
       <c r="B24" s="133"/>
       <c r="C24" s="134" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D24" s="101"/>
       <c r="E24" s="135">
@@ -11113,11 +11173,11 @@
       <c r="CW24" s="110"/>
       <c r="CX24" s="110"/>
     </row>
-    <row r="25" spans="1:102" ht="17.45" customHeight="1">
+    <row r="25" spans="1:102" ht="17.5" customHeight="1">
       <c r="A25" s="98"/>
       <c r="B25" s="99"/>
       <c r="C25" s="100" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D25" s="101"/>
       <c r="E25" s="102">
@@ -11326,11 +11386,11 @@
       <c r="CW25" s="110"/>
       <c r="CX25" s="110"/>
     </row>
-    <row r="26" spans="1:102" ht="17.45" customHeight="1">
+    <row r="26" spans="1:102" ht="17.5" customHeight="1">
       <c r="A26" s="98"/>
       <c r="B26" s="111"/>
       <c r="C26" s="112" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D26" s="101"/>
       <c r="E26" s="113">
@@ -11539,11 +11599,11 @@
       <c r="CW26" s="110"/>
       <c r="CX26" s="110"/>
     </row>
-    <row r="27" spans="1:102" ht="17.45" customHeight="1">
+    <row r="27" spans="1:102" ht="17.5" customHeight="1">
       <c r="A27" s="98"/>
       <c r="B27" s="99"/>
       <c r="C27" s="100" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D27" s="101"/>
       <c r="E27" s="102">
@@ -11752,11 +11812,11 @@
       <c r="CW27" s="110"/>
       <c r="CX27" s="110"/>
     </row>
-    <row r="28" spans="1:102" ht="17.45" customHeight="1" thickBot="1">
+    <row r="28" spans="1:102" ht="17.5" customHeight="1" thickBot="1">
       <c r="A28" s="98"/>
       <c r="B28" s="143"/>
       <c r="C28" s="144" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D28" s="101"/>
       <c r="E28" s="145">
@@ -11965,11 +12025,11 @@
       <c r="CW28" s="110"/>
       <c r="CX28" s="110"/>
     </row>
-    <row r="29" spans="1:102" ht="17.45" customHeight="1">
+    <row r="29" spans="1:102" ht="17.5" customHeight="1">
       <c r="A29" s="98"/>
       <c r="B29" s="153"/>
       <c r="C29" s="154" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D29" s="101"/>
       <c r="E29" s="155">
@@ -12178,11 +12238,11 @@
       <c r="CW29" s="110"/>
       <c r="CX29" s="110"/>
     </row>
-    <row r="30" spans="1:102" ht="17.45" customHeight="1">
+    <row r="30" spans="1:102" ht="17.5" customHeight="1">
       <c r="A30" s="98"/>
       <c r="B30" s="111"/>
       <c r="C30" s="112" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D30" s="101"/>
       <c r="E30" s="113">
@@ -12391,11 +12451,11 @@
       <c r="CW30" s="110"/>
       <c r="CX30" s="110"/>
     </row>
-    <row r="31" spans="1:102" ht="17.45" customHeight="1">
+    <row r="31" spans="1:102" ht="17.5" customHeight="1">
       <c r="A31" s="98"/>
       <c r="B31" s="99"/>
       <c r="C31" s="100" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D31" s="101"/>
       <c r="E31" s="102">
@@ -12604,11 +12664,11 @@
       <c r="CW31" s="110"/>
       <c r="CX31" s="110"/>
     </row>
-    <row r="32" spans="1:102" ht="17.45" customHeight="1">
+    <row r="32" spans="1:102" ht="17.5" customHeight="1">
       <c r="A32" s="98"/>
       <c r="B32" s="111"/>
       <c r="C32" s="112" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D32" s="101"/>
       <c r="E32" s="113">
@@ -12817,11 +12877,11 @@
       <c r="CW32" s="110"/>
       <c r="CX32" s="110"/>
     </row>
-    <row r="33" spans="1:102" ht="17.45" customHeight="1" thickBot="1">
+    <row r="33" spans="1:102" ht="17.5" customHeight="1" thickBot="1">
       <c r="A33" s="98"/>
       <c r="B33" s="122"/>
       <c r="C33" s="123" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D33" s="101"/>
       <c r="E33" s="124">
@@ -13030,11 +13090,11 @@
       <c r="CW33" s="110"/>
       <c r="CX33" s="110"/>
     </row>
-    <row r="34" spans="1:102" ht="17.45" customHeight="1">
+    <row r="34" spans="1:102" ht="17.5" customHeight="1">
       <c r="A34" s="98"/>
       <c r="B34" s="133"/>
       <c r="C34" s="134" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D34" s="101"/>
       <c r="E34" s="135">
@@ -13243,11 +13303,11 @@
       <c r="CW34" s="110"/>
       <c r="CX34" s="110"/>
     </row>
-    <row r="35" spans="1:102" ht="17.45" customHeight="1">
+    <row r="35" spans="1:102" ht="17.5" customHeight="1">
       <c r="A35" s="98"/>
       <c r="B35" s="99"/>
       <c r="C35" s="100" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D35" s="101"/>
       <c r="E35" s="102">
@@ -13456,11 +13516,11 @@
       <c r="CW35" s="110"/>
       <c r="CX35" s="110"/>
     </row>
-    <row r="36" spans="1:102" ht="17.45" customHeight="1">
+    <row r="36" spans="1:102" ht="17.5" customHeight="1">
       <c r="A36" s="98"/>
       <c r="B36" s="111"/>
       <c r="C36" s="112" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D36" s="101"/>
       <c r="E36" s="113">
@@ -13669,11 +13729,11 @@
       <c r="CW36" s="110"/>
       <c r="CX36" s="110"/>
     </row>
-    <row r="37" spans="1:102" ht="17.45" customHeight="1">
+    <row r="37" spans="1:102" ht="17.5" customHeight="1">
       <c r="A37" s="98"/>
       <c r="B37" s="99"/>
       <c r="C37" s="100" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D37" s="101"/>
       <c r="E37" s="102">
@@ -13882,11 +13942,11 @@
       <c r="CW37" s="110"/>
       <c r="CX37" s="110"/>
     </row>
-    <row r="38" spans="1:102" ht="17.45" customHeight="1" thickBot="1">
+    <row r="38" spans="1:102" ht="17.5" customHeight="1" thickBot="1">
       <c r="A38" s="98"/>
       <c r="B38" s="143"/>
       <c r="C38" s="144" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D38" s="101"/>
       <c r="E38" s="145">
@@ -14095,11 +14155,11 @@
       <c r="CW38" s="110"/>
       <c r="CX38" s="110"/>
     </row>
-    <row r="39" spans="1:102" ht="17.45" customHeight="1">
+    <row r="39" spans="1:102" ht="17.5" customHeight="1">
       <c r="A39" s="98"/>
       <c r="B39" s="153"/>
       <c r="C39" s="154" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D39" s="101"/>
       <c r="E39" s="155">
@@ -14308,11 +14368,11 @@
       <c r="CW39" s="110"/>
       <c r="CX39" s="110"/>
     </row>
-    <row r="40" spans="1:102" ht="17.45" customHeight="1">
+    <row r="40" spans="1:102" ht="17.5" customHeight="1">
       <c r="A40" s="98"/>
       <c r="B40" s="111"/>
       <c r="C40" s="112" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D40" s="101"/>
       <c r="E40" s="113">
@@ -14521,11 +14581,11 @@
       <c r="CW40" s="110"/>
       <c r="CX40" s="110"/>
     </row>
-    <row r="41" spans="1:102" ht="17.45" customHeight="1">
+    <row r="41" spans="1:102" ht="17.5" customHeight="1">
       <c r="A41" s="98"/>
       <c r="B41" s="99"/>
       <c r="C41" s="100" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D41" s="101"/>
       <c r="E41" s="102">
@@ -14734,11 +14794,11 @@
       <c r="CW41" s="110"/>
       <c r="CX41" s="110"/>
     </row>
-    <row r="42" spans="1:102" ht="17.45" customHeight="1">
+    <row r="42" spans="1:102" ht="17.5" customHeight="1">
       <c r="A42" s="98"/>
       <c r="B42" s="111"/>
       <c r="C42" s="112" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D42" s="101"/>
       <c r="E42" s="113">
@@ -14947,11 +15007,11 @@
       <c r="CW42" s="110"/>
       <c r="CX42" s="110"/>
     </row>
-    <row r="43" spans="1:102" ht="17.45" customHeight="1" thickBot="1">
+    <row r="43" spans="1:102" ht="17.5" customHeight="1" thickBot="1">
       <c r="A43" s="98"/>
       <c r="B43" s="122"/>
       <c r="C43" s="123" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D43" s="101"/>
       <c r="E43" s="124">
@@ -15160,11 +15220,11 @@
       <c r="CW43" s="110"/>
       <c r="CX43" s="110"/>
     </row>
-    <row r="44" spans="1:102" ht="17.45" customHeight="1">
+    <row r="44" spans="1:102" ht="17.5" customHeight="1">
       <c r="A44" s="98"/>
       <c r="B44" s="133"/>
       <c r="C44" s="134" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D44" s="101"/>
       <c r="E44" s="135">
@@ -15373,11 +15433,11 @@
       <c r="CW44" s="110"/>
       <c r="CX44" s="110"/>
     </row>
-    <row r="45" spans="1:102" ht="17.45" customHeight="1">
+    <row r="45" spans="1:102" ht="17.5" customHeight="1">
       <c r="A45" s="98"/>
       <c r="B45" s="99"/>
       <c r="C45" s="100" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D45" s="101"/>
       <c r="E45" s="102">
@@ -15586,11 +15646,11 @@
       <c r="CW45" s="110"/>
       <c r="CX45" s="110"/>
     </row>
-    <row r="46" spans="1:102" ht="17.45" customHeight="1">
+    <row r="46" spans="1:102" ht="17.5" customHeight="1">
       <c r="A46" s="98"/>
       <c r="B46" s="111"/>
       <c r="C46" s="112" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D46" s="101"/>
       <c r="E46" s="113">
@@ -15799,11 +15859,11 @@
       <c r="CW46" s="110"/>
       <c r="CX46" s="110"/>
     </row>
-    <row r="47" spans="1:102" ht="17.45" customHeight="1">
+    <row r="47" spans="1:102" ht="17.5" customHeight="1">
       <c r="A47" s="98"/>
       <c r="B47" s="99"/>
       <c r="C47" s="100" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D47" s="101"/>
       <c r="E47" s="102">
@@ -16012,11 +16072,11 @@
       <c r="CW47" s="110"/>
       <c r="CX47" s="110"/>
     </row>
-    <row r="48" spans="1:102" ht="17.45" customHeight="1" thickBot="1">
+    <row r="48" spans="1:102" ht="17.5" customHeight="1" thickBot="1">
       <c r="A48" s="98"/>
       <c r="B48" s="143"/>
       <c r="C48" s="144" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D48" s="101"/>
       <c r="E48" s="145">
@@ -16225,11 +16285,11 @@
       <c r="CW48" s="110"/>
       <c r="CX48" s="110"/>
     </row>
-    <row r="49" spans="1:102" ht="17.45" customHeight="1">
+    <row r="49" spans="1:102" ht="17.5" customHeight="1">
       <c r="A49" s="98"/>
       <c r="B49" s="153"/>
       <c r="C49" s="154" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D49" s="101"/>
       <c r="E49" s="155">
@@ -16438,11 +16498,11 @@
       <c r="CW49" s="110"/>
       <c r="CX49" s="110"/>
     </row>
-    <row r="50" spans="1:102" ht="17.45" customHeight="1">
+    <row r="50" spans="1:102" ht="17.5" customHeight="1">
       <c r="A50" s="98"/>
       <c r="B50" s="111"/>
       <c r="C50" s="112" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D50" s="101"/>
       <c r="E50" s="113">
@@ -16651,11 +16711,11 @@
       <c r="CW50" s="110"/>
       <c r="CX50" s="110"/>
     </row>
-    <row r="51" spans="1:102" ht="17.45" customHeight="1">
+    <row r="51" spans="1:102" ht="17.5" customHeight="1">
       <c r="A51" s="98"/>
       <c r="B51" s="99"/>
       <c r="C51" s="100" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D51" s="101"/>
       <c r="E51" s="102">
@@ -16864,11 +16924,11 @@
       <c r="CW51" s="110"/>
       <c r="CX51" s="110"/>
     </row>
-    <row r="52" spans="1:102" ht="17.45" customHeight="1">
+    <row r="52" spans="1:102" ht="17.5" customHeight="1">
       <c r="A52" s="98"/>
       <c r="B52" s="111"/>
       <c r="C52" s="112" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D52" s="101"/>
       <c r="E52" s="113">
@@ -17077,11 +17137,11 @@
       <c r="CW52" s="110"/>
       <c r="CX52" s="110"/>
     </row>
-    <row r="53" spans="1:102" ht="17.45" customHeight="1" thickBot="1">
+    <row r="53" spans="1:102" ht="17.5" customHeight="1" thickBot="1">
       <c r="A53" s="98"/>
       <c r="B53" s="122"/>
       <c r="C53" s="123" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D53" s="101"/>
       <c r="E53" s="124">
@@ -17290,11 +17350,11 @@
       <c r="CW53" s="110"/>
       <c r="CX53" s="110"/>
     </row>
-    <row r="54" spans="1:102" ht="17.45" customHeight="1">
+    <row r="54" spans="1:102" ht="17.5" customHeight="1">
       <c r="A54" s="98"/>
       <c r="B54" s="133"/>
       <c r="C54" s="134" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D54" s="101"/>
       <c r="E54" s="135">
@@ -17503,11 +17563,11 @@
       <c r="CW54" s="110"/>
       <c r="CX54" s="110"/>
     </row>
-    <row r="55" spans="1:102" ht="17.45" customHeight="1">
+    <row r="55" spans="1:102" ht="17.5" customHeight="1">
       <c r="A55" s="98"/>
       <c r="B55" s="99"/>
       <c r="C55" s="100" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D55" s="101"/>
       <c r="E55" s="102">
@@ -17716,11 +17776,11 @@
       <c r="CW55" s="110"/>
       <c r="CX55" s="110"/>
     </row>
-    <row r="56" spans="1:102" ht="17.45" customHeight="1">
+    <row r="56" spans="1:102" ht="17.5" customHeight="1">
       <c r="A56" s="98"/>
       <c r="B56" s="111"/>
       <c r="C56" s="112" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D56" s="101"/>
       <c r="E56" s="113">
@@ -17929,11 +17989,11 @@
       <c r="CW56" s="110"/>
       <c r="CX56" s="110"/>
     </row>
-    <row r="57" spans="1:102" ht="17.45" customHeight="1">
+    <row r="57" spans="1:102" ht="17.5" customHeight="1">
       <c r="A57" s="98"/>
       <c r="B57" s="99"/>
       <c r="C57" s="100" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D57" s="101"/>
       <c r="E57" s="102">
@@ -18142,11 +18202,11 @@
       <c r="CW57" s="110"/>
       <c r="CX57" s="110"/>
     </row>
-    <row r="58" spans="1:102" ht="17.45" customHeight="1" thickBot="1">
+    <row r="58" spans="1:102" ht="17.5" customHeight="1" thickBot="1">
       <c r="A58" s="98"/>
       <c r="B58" s="143"/>
       <c r="C58" s="144" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D58" s="101"/>
       <c r="E58" s="145">
@@ -18355,11 +18415,11 @@
       <c r="CW58" s="110"/>
       <c r="CX58" s="110"/>
     </row>
-    <row r="59" spans="1:102" ht="17.45" customHeight="1">
+    <row r="59" spans="1:102" ht="17.5" customHeight="1">
       <c r="A59" s="98"/>
       <c r="B59" s="153"/>
       <c r="C59" s="154" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D59" s="101"/>
       <c r="E59" s="155">
@@ -18568,11 +18628,11 @@
       <c r="CW59" s="110"/>
       <c r="CX59" s="110"/>
     </row>
-    <row r="60" spans="1:102" ht="17.45" customHeight="1">
+    <row r="60" spans="1:102" ht="17.5" customHeight="1">
       <c r="A60" s="98"/>
       <c r="B60" s="111"/>
       <c r="C60" s="112" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D60" s="101"/>
       <c r="E60" s="113">
@@ -18781,11 +18841,11 @@
       <c r="CW60" s="110"/>
       <c r="CX60" s="110"/>
     </row>
-    <row r="61" spans="1:102" ht="17.45" customHeight="1">
+    <row r="61" spans="1:102" ht="17.5" customHeight="1">
       <c r="A61" s="98"/>
       <c r="B61" s="99"/>
       <c r="C61" s="100" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D61" s="101"/>
       <c r="E61" s="102">
@@ -18994,11 +19054,11 @@
       <c r="CW61" s="110"/>
       <c r="CX61" s="110"/>
     </row>
-    <row r="62" spans="1:102" ht="17.45" customHeight="1">
+    <row r="62" spans="1:102" ht="17.5" customHeight="1">
       <c r="A62" s="98"/>
       <c r="B62" s="111"/>
       <c r="C62" s="112" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D62" s="101"/>
       <c r="E62" s="113">
@@ -19207,11 +19267,11 @@
       <c r="CW62" s="110"/>
       <c r="CX62" s="110"/>
     </row>
-    <row r="63" spans="1:102" ht="17.45" customHeight="1" thickBot="1">
+    <row r="63" spans="1:102" ht="17.5" customHeight="1" thickBot="1">
       <c r="A63" s="98"/>
       <c r="B63" s="122"/>
       <c r="C63" s="123" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D63" s="101"/>
       <c r="E63" s="124">
@@ -19420,11 +19480,11 @@
       <c r="CW63" s="110"/>
       <c r="CX63" s="110"/>
     </row>
-    <row r="64" spans="1:102" ht="17.45" customHeight="1">
+    <row r="64" spans="1:102" ht="17.5" customHeight="1">
       <c r="A64" s="98"/>
       <c r="B64" s="111"/>
       <c r="C64" s="112" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D64" s="101"/>
       <c r="E64" s="113">
@@ -19633,11 +19693,11 @@
       <c r="CW64" s="110"/>
       <c r="CX64" s="110"/>
     </row>
-    <row r="65" spans="1:102" ht="17.45" customHeight="1">
+    <row r="65" spans="1:102" ht="17.5" customHeight="1">
       <c r="A65" s="98"/>
       <c r="B65" s="99"/>
       <c r="C65" s="100" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D65" s="101"/>
       <c r="E65" s="102">
@@ -19846,11 +19906,11 @@
       <c r="CW65" s="110"/>
       <c r="CX65" s="110"/>
     </row>
-    <row r="66" spans="1:102" ht="17.45" customHeight="1">
+    <row r="66" spans="1:102" ht="17.5" customHeight="1">
       <c r="A66" s="98"/>
       <c r="B66" s="111"/>
       <c r="C66" s="112" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D66" s="101"/>
       <c r="E66" s="113">
@@ -20140,11 +20200,11 @@
       <c r="CW67" s="110"/>
       <c r="CX67" s="110"/>
     </row>
-    <row r="68" spans="1:102" ht="17.45" customHeight="1">
+    <row r="68" spans="1:102" ht="17.5" customHeight="1">
       <c r="A68" s="98"/>
       <c r="B68" s="153"/>
       <c r="C68" s="154" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D68" s="101"/>
       <c r="E68" s="155">
@@ -20353,11 +20413,11 @@
       <c r="CW68" s="110"/>
       <c r="CX68" s="110"/>
     </row>
-    <row r="69" spans="1:102" ht="17.45" customHeight="1">
+    <row r="69" spans="1:102" ht="17.5" customHeight="1">
       <c r="A69" s="98"/>
       <c r="B69" s="111"/>
       <c r="C69" s="112" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D69" s="101"/>
       <c r="E69" s="113">
@@ -20566,11 +20626,11 @@
       <c r="CW69" s="110"/>
       <c r="CX69" s="110"/>
     </row>
-    <row r="70" spans="1:102" ht="17.45" customHeight="1">
+    <row r="70" spans="1:102" ht="17.5" customHeight="1">
       <c r="A70" s="98"/>
       <c r="B70" s="99"/>
       <c r="C70" s="100" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D70" s="101"/>
       <c r="E70" s="102">
@@ -20779,11 +20839,11 @@
       <c r="CW70" s="110"/>
       <c r="CX70" s="110"/>
     </row>
-    <row r="71" spans="1:102" ht="17.45" customHeight="1">
+    <row r="71" spans="1:102" ht="17.5" customHeight="1">
       <c r="A71" s="98"/>
       <c r="B71" s="111"/>
       <c r="C71" s="112" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D71" s="101"/>
       <c r="E71" s="113">
@@ -20992,11 +21052,11 @@
       <c r="CW71" s="110"/>
       <c r="CX71" s="110"/>
     </row>
-    <row r="72" spans="1:102" ht="17.45" customHeight="1" thickBot="1">
+    <row r="72" spans="1:102" ht="17.5" customHeight="1" thickBot="1">
       <c r="A72" s="98"/>
       <c r="B72" s="122"/>
       <c r="C72" s="123" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D72" s="101"/>
       <c r="E72" s="124">
@@ -21205,11 +21265,11 @@
       <c r="CW72" s="110"/>
       <c r="CX72" s="110"/>
     </row>
-    <row r="73" spans="1:102" ht="17.45" customHeight="1" thickBot="1">
+    <row r="73" spans="1:102" ht="17.5" customHeight="1" thickBot="1">
       <c r="A73" s="98"/>
       <c r="B73" s="175"/>
       <c r="C73" s="176" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D73" s="177"/>
       <c r="E73" s="178">
@@ -21441,7 +21501,7 @@
         <v>7</v>
       </c>
       <c r="I75" s="190" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J75" s="191"/>
       <c r="K75" s="192"/>
@@ -21482,7 +21542,7 @@
         <v>8</v>
       </c>
       <c r="I76" s="190" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J76" s="191"/>
       <c r="K76" s="192"/>
@@ -21527,7 +21587,7 @@
     </row>
     <row r="78" spans="1:102" s="75" customFormat="1" ht="4.5" customHeight="1">
       <c r="B78" s="217" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C78" s="217"/>
       <c r="D78" s="217"/>
@@ -21643,7 +21703,7 @@
     </row>
     <row r="81" spans="1:102" s="191" customFormat="1" ht="15" customHeight="1">
       <c r="B81" s="193" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C81" s="194"/>
       <c r="D81" s="194"/>
@@ -22085,7 +22145,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B82" r:id="rId1" display="http://timss2019.org/download"/>
+    <hyperlink ref="B82" r:id="rId1" display="http://timss2019.org/download" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15" right="0.15" top="0.15" bottom="0.15" header="0.15" footer="0"/>
